--- a/Docs/Tables/NN Attributes.xlsx
+++ b/Docs/Tables/NN Attributes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\a.b.k\study\grad project II\Docs\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Bonna\Documents\GitHub\Healthy_Shield_Analysis\Docs\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8682060-B463-4965-ABCE-AEA3DAD92181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87896BEA-A256-4377-9F7D-195918AB4987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Age</t>
   </si>
@@ -45,17 +45,44 @@
     <t>Mirtial status</t>
   </si>
   <si>
-    <t>Cancer</t>
-  </si>
-  <si>
     <t>No of dependencies</t>
+  </si>
+  <si>
+    <t>Mobile Fees &gt; 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has a car 2013 &lt; model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dangerous disese </t>
+  </si>
+  <si>
+    <t>No of Cars</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>60&lt;n</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>single</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,14 +93,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,11 +151,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,49 +440,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="3" width="13.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1"/>
+    <col min="9" max="10" width="20.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M5" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M6" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M8" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M9" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M10" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M11" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M12" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Tables/NN Attributes.xlsx
+++ b/Docs/Tables/NN Attributes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Bonna\Documents\GitHub\Healthy_Shield_Analysis\Docs\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87896BEA-A256-4377-9F7D-195918AB4987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1584191F-AF10-4EC6-99DB-0142B870A79D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Age</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Percentage</t>
   </si>
   <si>
-    <t>60&lt;n</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -76,6 +73,27 @@
   </si>
   <si>
     <t>single</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>&lt;800</t>
+  </si>
+  <si>
+    <t>2013&lt;model</t>
+  </si>
+  <si>
+    <t>&gt;800</t>
+  </si>
+  <si>
+    <t>2013&gt;model</t>
+  </si>
+  <si>
+    <t>60&lt;=n</t>
+  </si>
+  <si>
+    <t>female</t>
   </si>
 </sst>
 </file>
@@ -443,7 +461,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,22 +523,82 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="M2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
       <c r="M3" s="6">
         <v>1</v>
       </c>
@@ -576,16 +654,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="M15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="5">
+        <v>3</v>
+      </c>
       <c r="M16" s="6">
         <v>0</v>
       </c>
